--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,57 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,40 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,23 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Attendance" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Attendance1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Attendance2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -555,4 +558,486 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:50:37</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:56:26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:56:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>owen-64070103</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:56:30</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -11,6 +11,11 @@
     <sheet name="Attendance" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Attendance1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Attendance2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Attendance3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Attendance4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Attendance5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Attendance6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Attendance7" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1040,4 +1045,796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Owen-64070103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:59:16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nut-1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:11:51</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nut-1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:11:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Owen-64070103</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22:12:29</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Owen-64070103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:29:03</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:30:50</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -16,6 +16,10 @@
     <sheet name="Attendance5" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Attendance6" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Attendance7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Attendance8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Attendance9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Attendance10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Attendance11" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -565,6 +569,728 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:32:09</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fern-55555</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22:32:20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fern-55555</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22:32:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22:32:21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:14:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>owen-4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fern-55555</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22:32:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22:32:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nut-1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22:32:23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -12,6 +12,12 @@
     <sheet name="Attendance2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Attendance3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Attendance4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Attendance5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Attendance6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Attendance7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Attendance8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Attendance9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Attendance10" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,6 +465,163 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:44:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:45:49</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:44:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nut-1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:45:50</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -703,4 +866,267 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:35:12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:35:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:36:39</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:35:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:36:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nut-1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:36:39</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:44:25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -18,6 +18,23 @@
     <sheet name="Attendance8" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Attendance9" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Attendance10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Attendance11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Attendance12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Attendance13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Attendance14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Attendance15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Attendance16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Attendance17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Attendance18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Attendance19" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Attendance20" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Attendance21" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Attendance22" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Attendance23" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Attendance24" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Attendance25" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Attendance26" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Attendance27" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -656,26 +673,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fern-55555</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23:17:15</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>Chanakarn-64070018</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:37:45</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:38:07</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -709,166 +779,130 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fern-55555</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23:17:15</t>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:38:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>owen-64070103</t>
+          <t>Noom-64070157</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-04-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23:17:16</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>owen-64070103</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23:17:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>owen-64070103</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23:17:54</t>
+          <t>09:38:09</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:38:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fern-55555</t>
+          <t>Noom-64070157</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-04-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23:17:55</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>09:38:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nut-64070145</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:38:10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -902,26 +936,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wipupat-4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23:35:12</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:38:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -955,43 +989,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wipupat-4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23:35:12</t>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:38:31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Noom-157</t>
+          <t>Noom-64070157</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-04-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23:36:39</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>09:38:32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1025,40 +1059,1230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wipupat-4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23:35:12</t>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:38:31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Noom-157</t>
+          <t>Noom-64070157</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-04-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23:36:39</t>
+          <t>09:38:32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Nut-64070145</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:38:35</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:39:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fern-55555</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:17:15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:39:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-64070157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:39:59</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:39:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-64070157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:39:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nut-64070145</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:40:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:39:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-64070157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:39:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nut-64070145</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:40:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chanakarn-64070018</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>09:40:04</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:41:03</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-64070157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:41:03</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-64070157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nut-64070145</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:41:05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-64070157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nut-64070145</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:41:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chanakarn-64070018</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>09:41:05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Owen-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:42:19</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:43:40</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fern-55555</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>owen-64070103</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:17:16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:17:54</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>owen-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:17:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fern-55555</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:17:55</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:35:12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:35:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:36:39</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:35:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Noom-157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:36:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Nut-1</t>
         </is>
       </c>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -35,6 +35,7 @@
     <sheet name="Attendance25" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="Attendance26" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Attendance27" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Attendance28" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1899,6 +1900,59 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wipupat-64070103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16:02:23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
